--- a/data/trans_orig/P17_R2-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P17_R2-Edad-trans_orig.xlsx
@@ -744,19 +744,19 @@
         <v>48835</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>37119</v>
+        <v>37856</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>62219</v>
+        <v>65117</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.09940988875769378</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.07556050010742019</v>
+        <v>0.0770598928706554</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1266546392265383</v>
+        <v>0.1325531778434968</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>89</v>
@@ -765,19 +765,19 @@
         <v>84606</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>69220</v>
+        <v>69575</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>101907</v>
+        <v>100691</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.1809803548721279</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.1480679704330463</v>
+        <v>0.1488270265136401</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.2179876982476633</v>
+        <v>0.215387098086882</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>138</v>
@@ -786,19 +786,19 @@
         <v>133441</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>113370</v>
+        <v>112836</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>154287</v>
+        <v>153701</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.1391843693673194</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.1182488904805504</v>
+        <v>0.1176920316990096</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1609270544789319</v>
+        <v>0.1603158338312979</v>
       </c>
     </row>
     <row r="5">
@@ -815,19 +815,19 @@
         <v>442414</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>429030</v>
+        <v>426132</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>454130</v>
+        <v>453393</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9005901112423063</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.8733453607734617</v>
+        <v>0.8674468221565033</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9244394998925798</v>
+        <v>0.9229401071293446</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>400</v>
@@ -836,19 +836,19 @@
         <v>382883</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>365582</v>
+        <v>366798</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>398269</v>
+        <v>397914</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.8190196451278721</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.7820123017523367</v>
+        <v>0.7846129019131181</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.8519320295669537</v>
+        <v>0.8511729734863599</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>847</v>
@@ -857,19 +857,19 @@
         <v>825297</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>804451</v>
+        <v>805037</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>845368</v>
+        <v>845902</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.8608156306326805</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.8390729455210681</v>
+        <v>0.839684166168702</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.8817511095194496</v>
+        <v>0.8823079683009901</v>
       </c>
     </row>
     <row r="6">
@@ -961,19 +961,19 @@
         <v>169756</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>145304</v>
+        <v>144645</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>192947</v>
+        <v>194089</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.2318378692046686</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1984441129025616</v>
+        <v>0.1975441517769976</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.2635102712783348</v>
+        <v>0.2650701384883424</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>219</v>
@@ -982,19 +982,19 @@
         <v>227623</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>202695</v>
+        <v>202765</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>254624</v>
+        <v>249916</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.3639089146826583</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.3240558394927119</v>
+        <v>0.3241680659515133</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.4070774066515906</v>
+        <v>0.3995495857351929</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>383</v>
@@ -1003,19 +1003,19 @@
         <v>397379</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>362838</v>
+        <v>363015</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>428726</v>
+        <v>430011</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.2926826033982654</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.2672423930448929</v>
+        <v>0.2673726492484119</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.3157710527279968</v>
+        <v>0.3167177455363571</v>
       </c>
     </row>
     <row r="8">
@@ -1032,19 +1032,19 @@
         <v>562462</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>539271</v>
+        <v>538129</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>586914</v>
+        <v>587573</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.7681621307953314</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.7364897287216652</v>
+        <v>0.7349298615116576</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.8015558870974383</v>
+        <v>0.8024558482230024</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>372</v>
@@ -1053,19 +1053,19 @@
         <v>397871</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>370870</v>
+        <v>375578</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>422799</v>
+        <v>422729</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.6360910853173417</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.5929225933484094</v>
+        <v>0.6004504142648069</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.6759441605072882</v>
+        <v>0.6758319340484867</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>908</v>
@@ -1074,19 +1074,19 @@
         <v>960333</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>928986</v>
+        <v>927701</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>994874</v>
+        <v>994697</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.7073173966017346</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.6842289472720031</v>
+        <v>0.6832822544636431</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.7327576069551071</v>
+        <v>0.7326273507515884</v>
       </c>
     </row>
     <row r="9">
@@ -1178,19 +1178,19 @@
         <v>204063</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>181389</v>
+        <v>179424</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>228007</v>
+        <v>227153</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.3199204207415267</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.2843727721639735</v>
+        <v>0.2812925671370793</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.3574579725310741</v>
+        <v>0.3561196089954956</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>311</v>
@@ -1199,19 +1199,19 @@
         <v>319857</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>292799</v>
+        <v>291637</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>345246</v>
+        <v>344959</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.463732599898295</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.4245034382417596</v>
+        <v>0.4228195070283833</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.5005415345423403</v>
+        <v>0.5001266301207288</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>506</v>
@@ -1220,19 +1220,19 @@
         <v>523920</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>491269</v>
+        <v>487911</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>560473</v>
+        <v>557885</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.3946369289181348</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.3700429220139222</v>
+        <v>0.3675133708498755</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.4221704554459315</v>
+        <v>0.4202208536031908</v>
       </c>
     </row>
     <row r="11">
@@ -1249,19 +1249,19 @@
         <v>433793</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>409849</v>
+        <v>410703</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>456467</v>
+        <v>458432</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.6800795792584734</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.6425420274689259</v>
+        <v>0.6438803910045042</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.7156272278360263</v>
+        <v>0.7187074328629206</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>347</v>
@@ -1270,19 +1270,19 @@
         <v>369887</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>344498</v>
+        <v>344785</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>396945</v>
+        <v>398107</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.536267400101705</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.4994584654576596</v>
+        <v>0.4998733698792712</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.5754965617582397</v>
+        <v>0.5771804929716167</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>764</v>
@@ -1291,19 +1291,19 @@
         <v>803680</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>767127</v>
+        <v>769715</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>836331</v>
+        <v>839689</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.6053630710818652</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.5778295445540684</v>
+        <v>0.5797791463968092</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.6299570779860778</v>
+        <v>0.6324866291501252</v>
       </c>
     </row>
     <row r="12">
@@ -1395,19 +1395,19 @@
         <v>128495</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>108210</v>
+        <v>109366</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>148660</v>
+        <v>150692</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.2483225339302227</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.2091214955224391</v>
+        <v>0.2113546646154027</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.2872930519032041</v>
+        <v>0.2912207034911478</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>164</v>
@@ -1416,19 +1416,19 @@
         <v>168306</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>146403</v>
+        <v>146178</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>189321</v>
+        <v>189781</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.3263999633601121</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.28392291675237</v>
+        <v>0.2834880027170424</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.3671558252477449</v>
+        <v>0.3680479350207335</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>287</v>
@@ -1437,19 +1437,19 @@
         <v>296800</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>270069</v>
+        <v>269479</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>328367</v>
+        <v>326283</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.2872928884786518</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.2614174885858024</v>
+        <v>0.2608465979594229</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.317848879590407</v>
+        <v>0.3158309068821056</v>
       </c>
     </row>
     <row r="14">
@@ -1466,19 +1466,19 @@
         <v>388956</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>368791</v>
+        <v>366759</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>409241</v>
+        <v>408085</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.7516774660697774</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.7127069480967957</v>
+        <v>0.7087792965088517</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.7908785044775607</v>
+        <v>0.7886453353845971</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>338</v>
@@ -1487,19 +1487,19 @@
         <v>347336</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>326321</v>
+        <v>325861</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>369239</v>
+        <v>369464</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.6736000366398879</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.6328441747522552</v>
+        <v>0.6319520649792665</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.71607708324763</v>
+        <v>0.7165119972829578</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>698</v>
@@ -1508,19 +1508,19 @@
         <v>736293</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>704726</v>
+        <v>706810</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>763024</v>
+        <v>763614</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.7127071115213482</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.6821511204095929</v>
+        <v>0.6841690931178945</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.7385825114141973</v>
+        <v>0.7391534020405773</v>
       </c>
     </row>
     <row r="15">
@@ -1612,19 +1612,19 @@
         <v>90184</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>74257</v>
+        <v>75540</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>106776</v>
+        <v>106681</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.2337038883000066</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.1924288313978643</v>
+        <v>0.195753162921831</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.2766989056101463</v>
+        <v>0.2764539383289086</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>104</v>
@@ -1633,19 +1633,19 @@
         <v>104798</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>87818</v>
+        <v>88098</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>121452</v>
+        <v>123581</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.260037258938363</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.2179054617720911</v>
+        <v>0.2186005820397534</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.301361293490367</v>
+        <v>0.3066443142678338</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>195</v>
@@ -1654,19 +1654,19 @@
         <v>194982</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>169860</v>
+        <v>174042</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>217181</v>
+        <v>220571</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.2471562777944192</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.2153112382571151</v>
+        <v>0.2206124751712054</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.2752943988940577</v>
+        <v>0.2795922172963147</v>
       </c>
     </row>
     <row r="17">
@@ -1683,19 +1683,19 @@
         <v>295708</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>279116</v>
+        <v>279211</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>311635</v>
+        <v>310352</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.7662961116999933</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.7233010943898538</v>
+        <v>0.7235460616710915</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.807571168602136</v>
+        <v>0.804246837078169</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>291</v>
@@ -1704,19 +1704,19 @@
         <v>298212</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>281558</v>
+        <v>279429</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>315192</v>
+        <v>314912</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.7399627410616371</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.698638706509633</v>
+        <v>0.6933556857321668</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.7820945382279088</v>
+        <v>0.7813994179602467</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>591</v>
@@ -1725,19 +1725,19 @@
         <v>593921</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>571722</v>
+        <v>568332</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>619043</v>
+        <v>614861</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.7528437222055807</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.7247056011059423</v>
+        <v>0.7204077827036854</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.7846887617428848</v>
+        <v>0.7793875248287948</v>
       </c>
     </row>
     <row r="18">
@@ -1829,19 +1829,19 @@
         <v>73541</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>59731</v>
+        <v>59881</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>88851</v>
+        <v>87938</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.2513503411715853</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.2041498680152978</v>
+        <v>0.2046645456003945</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.3036762902641944</v>
+        <v>0.300558721452631</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>92</v>
@@ -1850,19 +1850,19 @@
         <v>86722</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>72745</v>
+        <v>72483</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>101963</v>
+        <v>103759</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.2535732899013442</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.2127031934131094</v>
+        <v>0.21193702162585</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.2981369826821163</v>
+        <v>0.3033881044446625</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>169</v>
@@ -1871,19 +1871,19 @@
         <v>160263</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>138692</v>
+        <v>140984</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>180939</v>
+        <v>182366</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.2525483715253229</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.2185554983859215</v>
+        <v>0.222167279150634</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.2851300116966774</v>
+        <v>0.2873788825369812</v>
       </c>
     </row>
     <row r="20">
@@ -1900,19 +1900,19 @@
         <v>219042</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>203732</v>
+        <v>204645</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>232852</v>
+        <v>232702</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.7486496588284147</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.6963237097358056</v>
+        <v>0.699441278547369</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.7958501319847022</v>
+        <v>0.7953354543996057</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>278</v>
@@ -1921,19 +1921,19 @@
         <v>255279</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>240038</v>
+        <v>238242</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>269256</v>
+        <v>269518</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.7464267100986558</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.7018630173178838</v>
+        <v>0.6966118955553378</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.7872968065868906</v>
+        <v>0.7880629783741501</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>504</v>
@@ -1942,19 +1942,19 @@
         <v>474321</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>453645</v>
+        <v>452218</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>495892</v>
+        <v>493600</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.7474516284746771</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.7148699883033226</v>
+        <v>0.7126211174630188</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.7814445016140784</v>
+        <v>0.7778327208493659</v>
       </c>
     </row>
     <row r="21">
@@ -2046,19 +2046,19 @@
         <v>49649</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>37738</v>
+        <v>38726</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>62223</v>
+        <v>63347</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.2365571388090797</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.1798069906400809</v>
+        <v>0.1845130122737626</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.2964648182357749</v>
+        <v>0.3018219692972273</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>44</v>
@@ -2067,19 +2067,19 @@
         <v>50928</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>38995</v>
+        <v>39051</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>65593</v>
+        <v>65977</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.1525209453411337</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.1167848108449971</v>
+        <v>0.1169525695483908</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.1964398807792569</v>
+        <v>0.1975909201111981</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>94</v>
@@ -2088,19 +2088,19 @@
         <v>100577</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>82986</v>
+        <v>83065</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>118980</v>
+        <v>121430</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.1849557759892538</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.1526073372860483</v>
+        <v>0.1527513017530614</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.218797004269554</v>
+        <v>0.2233026582295764</v>
       </c>
     </row>
     <row r="23">
@@ -2117,19 +2117,19 @@
         <v>160234</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>147660</v>
+        <v>146536</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>172145</v>
+        <v>171157</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.7634428611909203</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.7035351817642252</v>
+        <v>0.6981780307027722</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.8201930093599192</v>
+        <v>0.8154869877262374</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>246</v>
@@ -2138,19 +2138,19 @@
         <v>282980</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>268315</v>
+        <v>267931</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>294913</v>
+        <v>294857</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.8474790546588663</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.8035601192207427</v>
+        <v>0.8024090798888017</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.8832151891550029</v>
+        <v>0.8830474304516091</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>416</v>
@@ -2159,19 +2159,19 @@
         <v>443214</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>424811</v>
+        <v>422361</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>460805</v>
+        <v>460726</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.8150442240107463</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.7812029957304458</v>
+        <v>0.7766973417704238</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.8473926627139517</v>
+        <v>0.8472486982469386</v>
       </c>
     </row>
     <row r="24">
@@ -2263,19 +2263,19 @@
         <v>764523</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>721727</v>
+        <v>715875</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>817202</v>
+        <v>817496</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.2340044288850048</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.2209054684831939</v>
+        <v>0.2191141791591646</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.2501282406842695</v>
+        <v>0.2502181726111911</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>1023</v>
@@ -2284,19 +2284,19 @@
         <v>1042840</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>987748</v>
+        <v>991311</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>1097203</v>
+        <v>1096910</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.308780100593371</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.2924675709876742</v>
+        <v>0.2935226107439725</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.3248768697327278</v>
+        <v>0.324790131369305</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>1772</v>
@@ -2305,19 +2305,19 @@
         <v>1807363</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>1736591</v>
+        <v>1736810</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>1881206</v>
+        <v>1882529</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.2720121139120779</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.2613607796828196</v>
+        <v>0.2613936706478213</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.2831256636917109</v>
+        <v>0.2833248280815198</v>
       </c>
     </row>
     <row r="26">
@@ -2334,19 +2334,19 @@
         <v>2502609</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>2449930</v>
+        <v>2449636</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>2545405</v>
+        <v>2551257</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.7659955711149952</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.7498717593157305</v>
+        <v>0.7497818273888088</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.7790945315168061</v>
+        <v>0.7808858208408354</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>2272</v>
@@ -2355,19 +2355,19 @@
         <v>2334449</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>2280086</v>
+        <v>2280379</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>2389541</v>
+        <v>2385978</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.691219899406629</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.6751231302672726</v>
+        <v>0.675209868630695</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.7075324290123257</v>
+        <v>0.7064773892560275</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>4728</v>
@@ -2376,19 +2376,19 @@
         <v>4837058</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>4763215</v>
+        <v>4761892</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>4907830</v>
+        <v>4907611</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.7279878860879221</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.7168743363082891</v>
+        <v>0.7166751719184803</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.7386392203171803</v>
+        <v>0.7386063293521786</v>
       </c>
     </row>
     <row r="27">
@@ -2723,19 +2723,19 @@
         <v>61938</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>48964</v>
+        <v>48855</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>76918</v>
+        <v>78831</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.1366963823466151</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.1080633037560117</v>
+        <v>0.1078220312548051</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1697573876545285</v>
+        <v>0.1739796001249211</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>86</v>
@@ -2744,19 +2744,19 @@
         <v>88308</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>73106</v>
+        <v>73716</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>106542</v>
+        <v>108056</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.2057642481327036</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.170341335862679</v>
+        <v>0.1717635818311602</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.2482495122277611</v>
+        <v>0.2517772377695094</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>146</v>
@@ -2765,19 +2765,19 @@
         <v>150246</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>129630</v>
+        <v>127683</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>171631</v>
+        <v>174226</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.170293500798361</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.1469268488232778</v>
+        <v>0.1447198117395018</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1945318209660373</v>
+        <v>0.1974734753452918</v>
       </c>
     </row>
     <row r="5">
@@ -2794,19 +2794,19 @@
         <v>391167</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>376187</v>
+        <v>374274</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>404141</v>
+        <v>404250</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.8633036176533848</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.8302426123454715</v>
+        <v>0.8260203998750789</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.8919366962439882</v>
+        <v>0.8921779687451948</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>334</v>
@@ -2815,19 +2815,19 @@
         <v>340864</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>322630</v>
+        <v>321116</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>356066</v>
+        <v>355456</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.7942357518672964</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.7517504877722394</v>
+        <v>0.7482227622304908</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.8296586641373211</v>
+        <v>0.8282364181688399</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>719</v>
@@ -2836,19 +2836,19 @@
         <v>732031</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>710646</v>
+        <v>708051</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>752647</v>
+        <v>754594</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.829706499201639</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.8054681790339627</v>
+        <v>0.8025265246547084</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.8530731511767222</v>
+        <v>0.8552801882604985</v>
       </c>
     </row>
     <row r="6">
@@ -2940,19 +2940,19 @@
         <v>178410</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>156474</v>
+        <v>156598</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>200527</v>
+        <v>201707</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.2596610707236269</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.2277354683764438</v>
+        <v>0.227916551429303</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.2918503621746834</v>
+        <v>0.293568358705167</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>245</v>
@@ -2961,19 +2961,19 @@
         <v>255921</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>231207</v>
+        <v>232428</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>280886</v>
+        <v>281946</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.4200369110455771</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.3794734042870768</v>
+        <v>0.3814784277767517</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.4610114799325901</v>
+        <v>0.4627503770624287</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>421</v>
@@ -2982,19 +2982,19 @@
         <v>434331</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>400148</v>
+        <v>403089</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>468600</v>
+        <v>472389</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.3350363785492722</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.3086682161062604</v>
+        <v>0.3109365376279701</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.3614705096775377</v>
+        <v>0.3643939639884682</v>
       </c>
     </row>
     <row r="8">
@@ -3011,19 +3011,19 @@
         <v>508677</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>486560</v>
+        <v>485380</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>530613</v>
+        <v>530489</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.7403389292763731</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.7081496378253166</v>
+        <v>0.7064316412948334</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.7722645316235561</v>
+        <v>0.772083448570697</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>325</v>
@@ -3032,19 +3032,19 @@
         <v>353362</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>328397</v>
+        <v>327337</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>378076</v>
+        <v>376855</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.5799630889544228</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.5389885200674099</v>
+        <v>0.5372496229375714</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.6205265957129232</v>
+        <v>0.6185215722232483</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>816</v>
@@ -3053,19 +3053,19 @@
         <v>862039</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>827770</v>
+        <v>823981</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>896222</v>
+        <v>893281</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.6649636214507278</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.6385294903224623</v>
+        <v>0.6356060360115318</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.6913317838937396</v>
+        <v>0.6890634623720299</v>
       </c>
     </row>
     <row r="9">
@@ -3157,19 +3157,19 @@
         <v>255508</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>229904</v>
+        <v>232279</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>282075</v>
+        <v>283074</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.374720477678083</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.3371709943496609</v>
+        <v>0.3406532634283018</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.413682871452854</v>
+        <v>0.4151481042209496</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>344</v>
@@ -3178,19 +3178,19 @@
         <v>367396</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>341943</v>
+        <v>341020</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>394333</v>
+        <v>395776</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.5168400355403387</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.4810341128287012</v>
+        <v>0.4797353514505329</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.5547348861589558</v>
+        <v>0.5567639172923773</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>589</v>
@@ -3199,19 +3199,19 @@
         <v>622903</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>583509</v>
+        <v>582779</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>661420</v>
+        <v>660255</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.4472592480333518</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.418973050781722</v>
+        <v>0.4184492764713721</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.4749149702778231</v>
+        <v>0.4740785695758251</v>
       </c>
     </row>
     <row r="11">
@@ -3228,19 +3228,19 @@
         <v>426355</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>399788</v>
+        <v>398789</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>451959</v>
+        <v>449584</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.625279522321917</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.586317128547146</v>
+        <v>0.5848518957790504</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.6628290056503392</v>
+        <v>0.6593467365716984</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>323</v>
@@ -3249,19 +3249,19 @@
         <v>343454</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>316517</v>
+        <v>315074</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>368907</v>
+        <v>369830</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.4831599644596612</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.4452651138410441</v>
+        <v>0.4432360827076228</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.5189658871712988</v>
+        <v>0.5202646485494672</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>729</v>
@@ -3270,19 +3270,19 @@
         <v>769809</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>731292</v>
+        <v>732457</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>809203</v>
+        <v>809933</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.5527407519666482</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.5250850297221769</v>
+        <v>0.5259214304241748</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.5810269492182779</v>
+        <v>0.5815507235286278</v>
       </c>
     </row>
     <row r="12">
@@ -3374,19 +3374,19 @@
         <v>172918</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>149203</v>
+        <v>150485</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>195035</v>
+        <v>198043</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.2813421081524941</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.2427581227119021</v>
+        <v>0.2448437995392153</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.3173285142847485</v>
+        <v>0.322222419208802</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>193</v>
@@ -3395,19 +3395,19 @@
         <v>221869</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>196456</v>
+        <v>197489</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>247516</v>
+        <v>249569</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.3607345582688778</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.3194144454612853</v>
+        <v>0.3210949368531843</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.4024335973918948</v>
+        <v>0.4057701823548449</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>347</v>
@@ -3416,19 +3416,19 @@
         <v>394787</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>364440</v>
+        <v>363125</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>434125</v>
+        <v>427914</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.3210522999977079</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.2963735617942365</v>
+        <v>0.2953036653621437</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.3530430439771761</v>
+        <v>0.3479920250303295</v>
       </c>
     </row>
     <row r="14">
@@ -3445,19 +3445,19 @@
         <v>441699</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>419582</v>
+        <v>416574</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>465414</v>
+        <v>464132</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.7186578918475059</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.6826714857152514</v>
+        <v>0.6777775807911981</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.7572418772880979</v>
+        <v>0.7551562004607848</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>345</v>
@@ -3466,19 +3466,19 @@
         <v>393180</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>367533</v>
+        <v>365480</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>418593</v>
+        <v>417560</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.6392654417311222</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.5975664026081052</v>
+        <v>0.5942298176451548</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.6805855545387147</v>
+        <v>0.6789050631468155</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>739</v>
@@ -3487,19 +3487,19 @@
         <v>834879</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>795541</v>
+        <v>801752</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>865226</v>
+        <v>866541</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.6789477000022921</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.646956956022824</v>
+        <v>0.6520079749696704</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.7036264382057635</v>
+        <v>0.7046963346378562</v>
       </c>
     </row>
     <row r="15">
@@ -3591,19 +3591,19 @@
         <v>93523</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>75000</v>
+        <v>75654</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>110418</v>
+        <v>111673</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.21832253207126</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.1750825459797523</v>
+        <v>0.1766087077546333</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.2577627420388435</v>
+        <v>0.2606930861747382</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>96</v>
@@ -3612,19 +3612,19 @@
         <v>107535</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>88976</v>
+        <v>90133</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>126900</v>
+        <v>126942</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.2401403069339853</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.1986962465845262</v>
+        <v>0.2012787787406985</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.2833854133447212</v>
+        <v>0.2834795427869543</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>181</v>
@@ -3633,19 +3633,19 @@
         <v>201058</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>176983</v>
+        <v>175198</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>229930</v>
+        <v>226848</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.2294733400315729</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.2019964361351904</v>
+        <v>0.1999590324475596</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.2624257228664605</v>
+        <v>0.2589084423780504</v>
       </c>
     </row>
     <row r="17">
@@ -3662,19 +3662,19 @@
         <v>334847</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>317952</v>
+        <v>316697</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>353370</v>
+        <v>352716</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.78167746792874</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.7422372579611565</v>
+        <v>0.7393069138252618</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.8249174540202477</v>
+        <v>0.8233912922453668</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>310</v>
@@ -3683,19 +3683,19 @@
         <v>340265</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>320900</v>
+        <v>320858</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>358824</v>
+        <v>357667</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.7598596930660148</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.7166145866552788</v>
+        <v>0.7165204572130455</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.8013037534154739</v>
+        <v>0.7987212212593012</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>617</v>
@@ -3704,19 +3704,19 @@
         <v>675112</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>646240</v>
+        <v>649322</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>699187</v>
+        <v>700972</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.7705266599684271</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.7375742771335391</v>
+        <v>0.7410915576219498</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.7980035638648088</v>
+        <v>0.8000409675524406</v>
       </c>
     </row>
     <row r="18">
@@ -3808,19 +3808,19 @@
         <v>62597</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>48888</v>
+        <v>48462</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>77876</v>
+        <v>76926</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.202064585679189</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.1578131871754269</v>
+        <v>0.1564369293746515</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.2513851812399389</v>
+        <v>0.2483198414898531</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>73</v>
@@ -3829,19 +3829,19 @@
         <v>75626</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>61227</v>
+        <v>61286</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>92480</v>
+        <v>93604</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.2136348743797751</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.172960857366326</v>
+        <v>0.1731276224033121</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.2612448686982742</v>
+        <v>0.2644198842472465</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>131</v>
@@ -3850,19 +3850,19 @@
         <v>138223</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>116245</v>
+        <v>116917</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>159182</v>
+        <v>159545</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.2082350374147839</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.1751246887783726</v>
+        <v>0.1761375557700844</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.2398114046157889</v>
+        <v>0.2403574990016308</v>
       </c>
     </row>
     <row r="20">
@@ -3879,19 +3879,19 @@
         <v>247189</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>231910</v>
+        <v>232860</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>260898</v>
+        <v>261324</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.7979354143208109</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.7486148187600611</v>
+        <v>0.7516801585101471</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.8421868128245732</v>
+        <v>0.8435630706253486</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>271</v>
@@ -3900,19 +3900,19 @@
         <v>278370</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>261516</v>
+        <v>260392</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>292769</v>
+        <v>292710</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.7863651256202249</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.7387551313017258</v>
+        <v>0.7355801157527535</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.827039142633674</v>
+        <v>0.8268723775966882</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>495</v>
@@ -3921,19 +3921,19 @@
         <v>525559</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>504600</v>
+        <v>504237</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>547537</v>
+        <v>546865</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.7917649625852161</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.7601885953842109</v>
+        <v>0.7596425009983693</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.8248753112216272</v>
+        <v>0.8238624442299156</v>
       </c>
     </row>
     <row r="21">
@@ -4025,19 +4025,19 @@
         <v>43181</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>31259</v>
+        <v>30899</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>56600</v>
+        <v>57335</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.1728255760719628</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.1251113979234429</v>
+        <v>0.1236702886509041</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.2265337408192414</v>
+        <v>0.2294754548906109</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>53</v>
@@ -4046,19 +4046,19 @@
         <v>57309</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>45006</v>
+        <v>44778</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>72720</v>
+        <v>73366</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.1473311494847891</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.1157035803394744</v>
+        <v>0.1151178425702976</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.1869516184028391</v>
+        <v>0.1886116142554547</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>89</v>
@@ -4067,19 +4067,19 @@
         <v>100489</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>81349</v>
+        <v>83481</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>119845</v>
+        <v>120946</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.157302199256615</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.1273407750515458</v>
+        <v>0.1306777041678623</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.1876006831104462</v>
+        <v>0.1893242503757472</v>
       </c>
     </row>
     <row r="23">
@@ -4096,19 +4096,19 @@
         <v>206670</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>193251</v>
+        <v>192516</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>218592</v>
+        <v>218952</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.8271744239280372</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.7734662591807585</v>
+        <v>0.7705245451093893</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.8748886020765572</v>
+        <v>0.8763297113490959</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>297</v>
@@ -4117,19 +4117,19 @@
         <v>331670</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>316259</v>
+        <v>315613</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>343973</v>
+        <v>344201</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.8526688505152109</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.813048381597161</v>
+        <v>0.8113883857445453</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.8842964196605255</v>
+        <v>0.8848821574297024</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>483</v>
@@ -4138,19 +4138,19 @@
         <v>538341</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>518985</v>
+        <v>517884</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>557481</v>
+        <v>555349</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.8426978007433851</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.8123993168895537</v>
+        <v>0.8106757496242528</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.8726592249484543</v>
+        <v>0.8693222958321377</v>
       </c>
     </row>
     <row r="24">
@@ -4242,19 +4242,19 @@
         <v>868073</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>811779</v>
+        <v>819320</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>921071</v>
+        <v>920532</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.2534758377866184</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.2370380297271263</v>
+        <v>0.2392399992358359</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.2689511661539403</v>
+        <v>0.2687936642030714</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>1090</v>
@@ -4263,19 +4263,19 @@
         <v>1173964</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>1117477</v>
+        <v>1118463</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>1231754</v>
+        <v>1235012</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.3302170509784438</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.3143281217290033</v>
+        <v>0.3146055158208376</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.3464724725503265</v>
+        <v>0.3473887387000231</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>1904</v>
@@ -4284,19 +4284,19 @@
         <v>2042037</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>1965044</v>
+        <v>1964903</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>2115132</v>
+        <v>2119409</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.292563578229609</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.2815326896685631</v>
+        <v>0.2815125768653552</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.3030359294919824</v>
+        <v>0.3036487208804837</v>
       </c>
     </row>
     <row r="26">
@@ -4313,19 +4313,19 @@
         <v>2556605</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>2503607</v>
+        <v>2504146</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>2612899</v>
+        <v>2605358</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.7465241622133816</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.7310488338460593</v>
+        <v>0.7312063357969283</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.7629619702728736</v>
+        <v>0.7607600007641639</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>2205</v>
@@ -4334,19 +4334,19 @@
         <v>2381165</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>2323375</v>
+        <v>2320117</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>2437652</v>
+        <v>2436666</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.6697829490215562</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.6535275274496736</v>
+        <v>0.6526112612999769</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.6856718782709967</v>
+        <v>0.6853944841791625</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>4598</v>
@@ -4355,19 +4355,19 @@
         <v>4937770</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>4864675</v>
+        <v>4860398</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>5014763</v>
+        <v>5014904</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.7074364217703909</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.6969640705080177</v>
+        <v>0.6963512791195166</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.718467310331437</v>
+        <v>0.718487423134645</v>
       </c>
     </row>
     <row r="27">
@@ -4702,19 +4702,19 @@
         <v>51794</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>39385</v>
+        <v>39083</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>67772</v>
+        <v>68009</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.1244355962507149</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.09462255524141548</v>
+        <v>0.0938967865342213</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1628235005572868</v>
+        <v>0.1633913114155724</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>86</v>
@@ -4723,19 +4723,19 @@
         <v>87093</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>72450</v>
+        <v>70930</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>105545</v>
+        <v>103977</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.2200668283749216</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.1830689369428416</v>
+        <v>0.1792265440711346</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.266693301891622</v>
+        <v>0.2627303303202991</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>133</v>
@@ -4744,19 +4744,19 @@
         <v>138887</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>118982</v>
+        <v>119004</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>160510</v>
+        <v>161507</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.1710453685666616</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.1465313596500816</v>
+        <v>0.1465586672165326</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1976753641586854</v>
+        <v>0.1989037353901459</v>
       </c>
     </row>
     <row r="5">
@@ -4773,19 +4773,19 @@
         <v>364438</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>348460</v>
+        <v>348223</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>376847</v>
+        <v>377149</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.8755644037492851</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.8371764994427133</v>
+        <v>0.8366086885844275</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9053774447585847</v>
+        <v>0.9061032134657785</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>318</v>
@@ -4794,19 +4794,19 @@
         <v>308662</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>290210</v>
+        <v>291778</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>323305</v>
+        <v>324825</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.7799331716250784</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.7333066981083783</v>
+        <v>0.737269669679701</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.8169310630571585</v>
+        <v>0.8207734559288654</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>661</v>
@@ -4815,19 +4815,19 @@
         <v>673100</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>651477</v>
+        <v>650480</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>693005</v>
+        <v>692983</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.8289546314333385</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.8023246358413146</v>
+        <v>0.8010962646098541</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.8534686403499183</v>
+        <v>0.8534413327834673</v>
       </c>
     </row>
     <row r="6">
@@ -4919,19 +4919,19 @@
         <v>146526</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>125242</v>
+        <v>125616</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>169088</v>
+        <v>168438</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.2485804238615024</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.2124726476849731</v>
+        <v>0.2131063809093798</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.2868566651892834</v>
+        <v>0.2857540600117521</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>171</v>
@@ -4940,19 +4940,19 @@
         <v>167071</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>145787</v>
+        <v>144247</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>188486</v>
+        <v>186891</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.2979872969660142</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.2600238199748956</v>
+        <v>0.2572776395029873</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.3361825245564097</v>
+        <v>0.3333371481623669</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>309</v>
@@ -4961,19 +4961,19 @@
         <v>313597</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>284856</v>
+        <v>286408</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>343705</v>
+        <v>343357</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.2726656204035281</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.2476762251823066</v>
+        <v>0.2490256671796822</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.2988439430958799</v>
+        <v>0.2985408670610962</v>
       </c>
     </row>
     <row r="8">
@@ -4990,19 +4990,19 @@
         <v>442924</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>420362</v>
+        <v>421012</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>464208</v>
+        <v>463834</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.7514195761384975</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.7131433348107166</v>
+        <v>0.7142459399882479</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.7875273523150268</v>
+        <v>0.7868936190906201</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>405</v>
@@ -5011,19 +5011,19 @@
         <v>393595</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>372180</v>
+        <v>373775</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>414879</v>
+        <v>416419</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.7020127030339858</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.6638174754435903</v>
+        <v>0.6666628518376333</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.7399761800251042</v>
+        <v>0.7427223604970129</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>833</v>
@@ -5032,19 +5032,19 @@
         <v>836519</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>806411</v>
+        <v>806759</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>865260</v>
+        <v>863708</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.7273343795964718</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.7011560569041201</v>
+        <v>0.7014591329389039</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.7523237748176934</v>
+        <v>0.7509743328203179</v>
       </c>
     </row>
     <row r="9">
@@ -5136,19 +5136,19 @@
         <v>141704</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>120723</v>
+        <v>120953</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>164425</v>
+        <v>162946</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.2117837146663413</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.1804262507535683</v>
+        <v>0.1807699265877933</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.2457413952355736</v>
+        <v>0.2435319461008421</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>217</v>
@@ -5157,19 +5157,19 @@
         <v>216748</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>193780</v>
+        <v>192427</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>242379</v>
+        <v>240659</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.3302216419295212</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.2952295801596597</v>
+        <v>0.2931683884546731</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.3692706175115963</v>
+        <v>0.3666501575879595</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>352</v>
@@ -5178,19 +5178,19 @@
         <v>358451</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>326365</v>
+        <v>326342</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>391922</v>
+        <v>393378</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.2704341089806028</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.2462260513184779</v>
+        <v>0.2462093551895144</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.2956856010848329</v>
+        <v>0.2967846647885982</v>
       </c>
     </row>
     <row r="11">
@@ -5207,19 +5207,19 @@
         <v>527393</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>504672</v>
+        <v>506151</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>548374</v>
+        <v>548144</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.7882162853336587</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.7542586047644263</v>
+        <v>0.7564680538991578</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.8195737492464316</v>
+        <v>0.8192300734122067</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>443</v>
@@ -5228,19 +5228,19 @@
         <v>439623</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>413992</v>
+        <v>415712</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>462591</v>
+        <v>463944</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.6697783580704788</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.6307293824884044</v>
+        <v>0.6333498424120405</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.7047704198403405</v>
+        <v>0.7068316115453269</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>946</v>
@@ -5249,19 +5249,19 @@
         <v>967016</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>933545</v>
+        <v>932089</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>999102</v>
+        <v>999125</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.7295658910193972</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.7043143989151672</v>
+        <v>0.7032153352114018</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.7537739486815221</v>
+        <v>0.7537906448104856</v>
       </c>
     </row>
     <row r="12">
@@ -5353,19 +5353,19 @@
         <v>103204</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>86531</v>
+        <v>83353</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>126007</v>
+        <v>122333</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1597471237758253</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1339389202889633</v>
+        <v>0.1290191739591502</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1950425201906099</v>
+        <v>0.1893553672754489</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>134</v>
@@ -5374,19 +5374,19 @@
         <v>142782</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>122369</v>
+        <v>122136</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>165010</v>
+        <v>167883</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.2210392434001108</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1894387398357134</v>
+        <v>0.1890780342124072</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.2554511467509065</v>
+        <v>0.2598987057064667</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>226</v>
@@ -5395,19 +5395,19 @@
         <v>245986</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>220018</v>
+        <v>217205</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>276622</v>
+        <v>274612</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1903910194270324</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.170292110070311</v>
+        <v>0.1681148454574214</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.2141025121555338</v>
+        <v>0.2125470021185766</v>
       </c>
     </row>
     <row r="14">
@@ -5424,19 +5424,19 @@
         <v>542844</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>520041</v>
+        <v>523715</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>559517</v>
+        <v>562695</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.8402528762241747</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.8049574798093896</v>
+        <v>0.810644632724551</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.8660610797110366</v>
+        <v>0.8709808260408497</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>465</v>
@@ -5445,19 +5445,19 @@
         <v>503175</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>480947</v>
+        <v>478074</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>523588</v>
+        <v>523821</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.7789607565998892</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.7445488532490936</v>
+        <v>0.7401012942935334</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.8105612601642866</v>
+        <v>0.8109219657875928</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>955</v>
@@ -5466,19 +5466,19 @@
         <v>1046019</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1015383</v>
+        <v>1017393</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1071987</v>
+        <v>1074800</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.8096089805729676</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.7858974878444662</v>
+        <v>0.7874529978814235</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.829707889929689</v>
+        <v>0.8318851545425786</v>
       </c>
     </row>
     <row r="15">
@@ -5570,19 +5570,19 @@
         <v>77931</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>62176</v>
+        <v>61169</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>96382</v>
+        <v>95454</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.1642562989654952</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.1310504718736539</v>
+        <v>0.128928081420339</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.2031477845145823</v>
+        <v>0.2011916117450286</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>80</v>
@@ -5591,19 +5591,19 @@
         <v>93439</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>75762</v>
+        <v>76641</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>112828</v>
+        <v>115718</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.1884872079346905</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.1528277727407142</v>
+        <v>0.1546022866554927</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.2275990478085141</v>
+        <v>0.2334295016361675</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>148</v>
@@ -5612,19 +5612,19 @@
         <v>171370</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>148451</v>
+        <v>146105</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>198330</v>
+        <v>197460</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.1766375840614386</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.1530141515873011</v>
+        <v>0.1505961561093848</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.204426138175015</v>
+        <v>0.203529928678045</v>
       </c>
     </row>
     <row r="17">
@@ -5641,19 +5641,19 @@
         <v>396514</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>378063</v>
+        <v>378991</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>412269</v>
+        <v>413276</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.8357437010345048</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.7968522154854177</v>
+        <v>0.7988083882549714</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.8689495281263458</v>
+        <v>0.8710719185796609</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>352</v>
@@ -5662,19 +5662,19 @@
         <v>402293</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>382904</v>
+        <v>380014</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>419970</v>
+        <v>419091</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.8115127920653096</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.7724009521914859</v>
+        <v>0.7665704983638318</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.8471722272592856</v>
+        <v>0.8453977133445073</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>705</v>
@@ -5683,19 +5683,19 @@
         <v>798807</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>771847</v>
+        <v>772717</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>821726</v>
+        <v>824072</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.8233624159385614</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.795573861824985</v>
+        <v>0.7964700713219551</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.846985848412699</v>
+        <v>0.8494038438906152</v>
       </c>
     </row>
     <row r="18">
@@ -5787,19 +5787,19 @@
         <v>57211</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>43825</v>
+        <v>45307</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>72411</v>
+        <v>72694</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.1716741552494433</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.1315077900813782</v>
+        <v>0.1359543127553483</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.2172832796590703</v>
+        <v>0.2181325912695831</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>54</v>
@@ -5808,19 +5808,19 @@
         <v>58126</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>45588</v>
+        <v>44805</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>74317</v>
+        <v>74543</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.1542640532958557</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.1209893704345744</v>
+        <v>0.1189125986302633</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.1972348301278985</v>
+        <v>0.1978361645285752</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>109</v>
@@ -5829,19 +5829,19 @@
         <v>115337</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>98674</v>
+        <v>95923</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>138467</v>
+        <v>135750</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.1624353215553857</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.1389680647739951</v>
+        <v>0.1350933673919603</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.1950105082910652</v>
+        <v>0.191185079186202</v>
       </c>
     </row>
     <row r="20">
@@ -5858,19 +5858,19 @@
         <v>276043</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>260843</v>
+        <v>260560</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>289429</v>
+        <v>287947</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.8283258447505567</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.7827167203409299</v>
+        <v>0.7818674087304172</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.8684922099186219</v>
+        <v>0.8640456872446518</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>299</v>
@@ -5879,19 +5879,19 @@
         <v>318667</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>302476</v>
+        <v>302250</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>331205</v>
+        <v>331988</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.8457359467041443</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.8027651698721016</v>
+        <v>0.8021638354714246</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.8790106295654255</v>
+        <v>0.8810874013697367</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>568</v>
@@ -5900,19 +5900,19 @@
         <v>594710</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>571580</v>
+        <v>574297</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>611373</v>
+        <v>614124</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.8375646784446142</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.8049894917089347</v>
+        <v>0.8088149208137981</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.8610319352260053</v>
+        <v>0.8649066326080397</v>
       </c>
     </row>
     <row r="21">
@@ -6004,19 +6004,19 @@
         <v>36464</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>27102</v>
+        <v>26680</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>46593</v>
+        <v>46746</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.1418838511150906</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.1054544359228877</v>
+        <v>0.103814760184816</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.181295870612766</v>
+        <v>0.1818942670904167</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>32</v>
@@ -6025,19 +6025,19 @@
         <v>46210</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>32978</v>
+        <v>31653</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>65261</v>
+        <v>62329</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.1154762045777096</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.08240922281887444</v>
+        <v>0.07909869196260892</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.1630829411856757</v>
+        <v>0.1557567052016244</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>76</v>
@@ -6046,19 +6046,19 @@
         <v>82674</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>64885</v>
+        <v>64451</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>102587</v>
+        <v>102129</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.1258034309415098</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.09873507262949066</v>
+        <v>0.09807407121264769</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.1561046693039737</v>
+        <v>0.1554081538301139</v>
       </c>
     </row>
     <row r="23">
@@ -6075,19 +6075,19 @@
         <v>220534</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>210405</v>
+        <v>210252</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>229896</v>
+        <v>230318</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.8581161488849094</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.8187041293872334</v>
+        <v>0.8181057329095823</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.8945455640771119</v>
+        <v>0.8961852398151839</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>269</v>
@@ -6096,19 +6096,19 @@
         <v>353959</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>334908</v>
+        <v>337840</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>367191</v>
+        <v>368516</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.8845237954222903</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.8369170588143242</v>
+        <v>0.8442432947983756</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.9175907771811255</v>
+        <v>0.9209013080373911</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>527</v>
@@ -6117,19 +6117,19 @@
         <v>574493</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>554580</v>
+        <v>555038</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>592282</v>
+        <v>592716</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.8741965690584902</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.8438953306960256</v>
+        <v>0.844591846169886</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.9012649273705092</v>
+        <v>0.9019259287873522</v>
       </c>
     </row>
     <row r="24">
@@ -6221,19 +6221,19 @@
         <v>614833</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>571287</v>
+        <v>570234</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>665469</v>
+        <v>662767</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.1816065900647685</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.1687439895410556</v>
+        <v>0.1684329343424488</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.1965631498631145</v>
+        <v>0.1957649811592314</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>774</v>
@@ -6242,19 +6242,19 @@
         <v>811468</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>761738</v>
+        <v>766613</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>862173</v>
+        <v>864745</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.2297837942459876</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.2157015252801542</v>
+        <v>0.217082083715074</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.2441419355532367</v>
+        <v>0.2448701180884446</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>1353</v>
@@ -6263,19 +6263,19 @@
         <v>1426302</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>1361935</v>
+        <v>1361163</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>1494991</v>
+        <v>1494849</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.2062033623919285</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.1968977150083683</v>
+        <v>0.1967861642297065</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.2161339542775668</v>
+        <v>0.2161133260893609</v>
       </c>
     </row>
     <row r="26">
@@ -6292,19 +6292,19 @@
         <v>2770691</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>2720055</v>
+        <v>2722757</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>2814237</v>
+        <v>2815290</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.8183934099352316</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.8034368501368855</v>
+        <v>0.8042350188407685</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.8312560104589442</v>
+        <v>0.831567065657551</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>2551</v>
@@ -6313,19 +6313,19 @@
         <v>2719975</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>2669270</v>
+        <v>2666698</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>2769705</v>
+        <v>2764830</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.7702162057540124</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.7558580644467633</v>
+        <v>0.7551298819115554</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.7842984747198458</v>
+        <v>0.782917916284926</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>5195</v>
@@ -6334,19 +6334,19 @@
         <v>5490665</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>5421976</v>
+        <v>5422118</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>5555032</v>
+        <v>5555804</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.7937966376080715</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.7838660457224331</v>
+        <v>0.7838866739106388</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.8031022849916317</v>
+        <v>0.8032138357702934</v>
       </c>
     </row>
     <row r="27">
@@ -6681,19 +6681,19 @@
         <v>36635</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>18407</v>
+        <v>20569</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>58889</v>
+        <v>60055</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.08983685707241813</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.04513729675559271</v>
+        <v>0.05043960124882959</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1444088903924389</v>
+        <v>0.1472691554618838</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>22</v>
@@ -6702,19 +6702,19 @@
         <v>42883</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>28590</v>
+        <v>26376</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>63742</v>
+        <v>61249</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.1182930278526315</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.0788656390707602</v>
+        <v>0.07275853752947239</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1758349910499039</v>
+        <v>0.1689565079317146</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>34</v>
@@ -6723,19 +6723,19 @@
         <v>79517</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>57542</v>
+        <v>55233</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>111266</v>
+        <v>108178</v>
       </c>
       <c r="U4" s="6" t="n">
-        <v>0.1032285683629493</v>
+        <v>0.1032285683629492</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.07469996148394588</v>
+        <v>0.07170226137429936</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1444446801003413</v>
+        <v>0.1404356315268726</v>
       </c>
     </row>
     <row r="5">
@@ -6752,19 +6752,19 @@
         <v>371158</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>348904</v>
+        <v>347738</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>389386</v>
+        <v>387224</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.910163142927582</v>
+        <v>0.9101631429275818</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.8555911096075608</v>
+        <v>0.8527308445381162</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9548627032444073</v>
+        <v>0.9495603987511704</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>185</v>
@@ -6773,19 +6773,19 @@
         <v>319629</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>298770</v>
+        <v>301263</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>333922</v>
+        <v>336136</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.8817069721473684</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.8241650089500961</v>
+        <v>0.8310434920682853</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9211343609292399</v>
+        <v>0.9272414624705275</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>345</v>
@@ -6794,19 +6794,19 @@
         <v>690788</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>659039</v>
+        <v>662127</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>712763</v>
+        <v>715072</v>
       </c>
       <c r="U5" s="6" t="n">
-        <v>0.896771431637051</v>
+        <v>0.8967714316370508</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.8555553198996587</v>
+        <v>0.8595643684731271</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9253000385160541</v>
+        <v>0.9282977386257003</v>
       </c>
     </row>
     <row r="6">
@@ -6898,19 +6898,19 @@
         <v>60630</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>41171</v>
+        <v>41569</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>83765</v>
+        <v>83265</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1271359030548157</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.0863317960521004</v>
+        <v>0.08716641706540683</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.1756475342453595</v>
+        <v>0.1746003973431773</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>116</v>
@@ -6919,19 +6919,19 @@
         <v>135995</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>117266</v>
+        <v>117124</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>158476</v>
+        <v>159255</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.2723371818695245</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.2348313780069273</v>
+        <v>0.2345461576519597</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.3173548737277623</v>
+        <v>0.3189161750056973</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>149</v>
@@ -6940,19 +6940,19 @@
         <v>196625</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>165016</v>
+        <v>169274</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>228761</v>
+        <v>229891</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.2014078093824136</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1690297969310365</v>
+        <v>0.1733908853844219</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.2343257554581067</v>
+        <v>0.2354829216531089</v>
       </c>
     </row>
     <row r="8">
@@ -6969,19 +6969,19 @@
         <v>416260</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>393125</v>
+        <v>393625</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>435719</v>
+        <v>435321</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.8728640969451843</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.8243524657546405</v>
+        <v>0.8253996026568227</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9136682039478995</v>
+        <v>0.9128335829345932</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>343</v>
@@ -6990,19 +6990,19 @@
         <v>363369</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>340888</v>
+        <v>340109</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>382098</v>
+        <v>382240</v>
       </c>
       <c r="N8" s="6" t="n">
-        <v>0.7276628181304756</v>
+        <v>0.7276628181304754</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.6826451262722377</v>
+        <v>0.6810838249943026</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.7651686219930725</v>
+        <v>0.7654538423480404</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>612</v>
@@ -7011,19 +7011,19 @@
         <v>779629</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>747493</v>
+        <v>746363</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>811238</v>
+        <v>806980</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.7985921906175864</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.7656742445418933</v>
+        <v>0.7645170783468912</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.8309702030689635</v>
+        <v>0.8266091146155783</v>
       </c>
     </row>
     <row r="9">
@@ -7115,19 +7115,19 @@
         <v>128123</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>107263</v>
+        <v>107869</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>152094</v>
+        <v>151651</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.2077968051247978</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.1739660995058308</v>
+        <v>0.1749487822604328</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.2466752879490471</v>
+        <v>0.2459568083641095</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>260</v>
@@ -7136,19 +7136,19 @@
         <v>205147</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>185587</v>
+        <v>183831</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>225504</v>
+        <v>224179</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>0.330537758684704</v>
+        <v>0.3305377586847041</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.2990221468797672</v>
+        <v>0.2961918633209245</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.3633375916427526</v>
+        <v>0.3612014766491636</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>360</v>
@@ -7157,19 +7157,19 @@
         <v>333270</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>304631</v>
+        <v>304389</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>364224</v>
+        <v>361180</v>
       </c>
       <c r="U10" s="6" t="n">
-        <v>0.2693691591149983</v>
+        <v>0.2693691591149982</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.2462214409711126</v>
+        <v>0.2460258772720455</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.2943884125605499</v>
+        <v>0.2919273472785122</v>
       </c>
     </row>
     <row r="11">
@@ -7186,19 +7186,19 @@
         <v>488454</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>464483</v>
+        <v>464926</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>509314</v>
+        <v>508708</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.7922031948752022</v>
+        <v>0.7922031948752023</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.7533247120509525</v>
+        <v>0.7540431916358904</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.8260339004941692</v>
+        <v>0.8250512177395672</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>584</v>
@@ -7207,19 +7207,19 @@
         <v>415500</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>395143</v>
+        <v>396468</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>435060</v>
+        <v>436816</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>0.6694622413152959</v>
+        <v>0.669462241315296</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.6366624083572475</v>
+        <v>0.6387985233508365</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.700977853120233</v>
+        <v>0.7038081366790758</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1027</v>
@@ -7228,19 +7228,19 @@
         <v>903954</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>873000</v>
+        <v>876044</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>932593</v>
+        <v>932835</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.7306308408850017</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.7056115874394502</v>
+        <v>0.7080726527214879</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.7537785590288872</v>
+        <v>0.7539741227279545</v>
       </c>
     </row>
     <row r="12">
@@ -7332,19 +7332,19 @@
         <v>131573</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>109331</v>
+        <v>109949</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>153109</v>
+        <v>156860</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1887243296454567</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1568209939669756</v>
+        <v>0.1577078104195411</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.219613824582178</v>
+        <v>0.2249943312166083</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>267</v>
@@ -7353,19 +7353,19 @@
         <v>180666</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>162362</v>
+        <v>161493</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>199274</v>
+        <v>198873</v>
       </c>
       <c r="N13" s="6" t="n">
-        <v>0.2460321000441506</v>
+        <v>0.2460321000441505</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.2211048126423798</v>
+        <v>0.2199215986193927</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.2713715706498625</v>
+        <v>0.2708254109655133</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>380</v>
@@ -7374,19 +7374,19 @@
         <v>312240</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>286094</v>
+        <v>281844</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>341837</v>
+        <v>340181</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.218121793206421</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1998574108517268</v>
+        <v>0.1968883492171959</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.2387971920806645</v>
+        <v>0.2376407418310901</v>
       </c>
     </row>
     <row r="14">
@@ -7403,19 +7403,19 @@
         <v>565599</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>544063</v>
+        <v>540312</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>587841</v>
+        <v>587223</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.8112756703545433</v>
+        <v>0.8112756703545432</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.7803861754178221</v>
+        <v>0.7750056687833923</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.8431790060330244</v>
+        <v>0.8422921895804589</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>870</v>
@@ -7424,19 +7424,19 @@
         <v>553654</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>535046</v>
+        <v>535447</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>571958</v>
+        <v>572827</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.7539678999558496</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.7286284293501371</v>
+        <v>0.7291745890344868</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.7788951873576201</v>
+        <v>0.7800784013806074</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1419</v>
@@ -7445,19 +7445,19 @@
         <v>1119253</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1089656</v>
+        <v>1091312</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1145399</v>
+        <v>1149649</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.781878206793579</v>
+        <v>0.7818782067935791</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.7612028079193356</v>
+        <v>0.7623592581689101</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.8001425891482734</v>
+        <v>0.8031116507828042</v>
       </c>
     </row>
     <row r="15">
@@ -7549,19 +7549,19 @@
         <v>69381</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>54987</v>
+        <v>54685</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>85985</v>
+        <v>85449</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.1144207639920227</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.09068196217356235</v>
+        <v>0.09018470211922719</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.1418037157906809</v>
+        <v>0.1409189813970967</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>158</v>
@@ -7570,19 +7570,19 @@
         <v>102230</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>87773</v>
+        <v>88021</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>118041</v>
+        <v>117617</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.1687671994512875</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.1449012729732605</v>
+        <v>0.1453096371336419</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1948697037564741</v>
+        <v>0.1941695340445713</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>229</v>
@@ -7591,19 +7591,19 @@
         <v>171611</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>150491</v>
+        <v>150852</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>194579</v>
+        <v>193118</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.1415800147269382</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.1241562864286295</v>
+        <v>0.1244540152848923</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.1605283527619038</v>
+        <v>0.1593231203847469</v>
       </c>
     </row>
     <row r="17">
@@ -7620,19 +7620,19 @@
         <v>536987</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>520383</v>
+        <v>520919</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>551381</v>
+        <v>551683</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.8855792360079772</v>
+        <v>0.8855792360079774</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.8581962842093193</v>
+        <v>0.8590810186029041</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9093180378264377</v>
+        <v>0.9098152978807729</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>839</v>
@@ -7641,19 +7641,19 @@
         <v>503515</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>487704</v>
+        <v>488128</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>517972</v>
+        <v>517724</v>
       </c>
       <c r="N17" s="6" t="n">
-        <v>0.8312328005487124</v>
+        <v>0.8312328005487125</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.8051302962435258</v>
+        <v>0.8058304659554287</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.8550987270267397</v>
+        <v>0.8546903628663581</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>1428</v>
@@ -7662,19 +7662,19 @@
         <v>1040502</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>1017534</v>
+        <v>1018995</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>1061622</v>
+        <v>1061261</v>
       </c>
       <c r="U17" s="6" t="n">
-        <v>0.8584199852730616</v>
+        <v>0.8584199852730618</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.8394716472380962</v>
+        <v>0.8406768796152529</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.8758437135713706</v>
+        <v>0.8755459847151076</v>
       </c>
     </row>
     <row r="18">
@@ -7766,19 +7766,19 @@
         <v>53490</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>42494</v>
+        <v>42929</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>66997</v>
+        <v>66190</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.1313981551517896</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.1043862558738882</v>
+        <v>0.1054570320042398</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.1645788885623918</v>
+        <v>0.1625965390781865</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>93</v>
@@ -7787,19 +7787,19 @@
         <v>51398</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>41729</v>
+        <v>41695</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>62797</v>
+        <v>61176</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.1173829751415974</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.09530141229708501</v>
+        <v>0.09522389704008045</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.1434163864482957</v>
+        <v>0.1397149030146059</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>159</v>
@@ -7808,19 +7808,19 @@
         <v>104887</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>89055</v>
+        <v>88104</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>121458</v>
+        <v>120708</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.1241352588684757</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.1053980106856954</v>
+        <v>0.1042716393240668</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.1437466424847085</v>
+        <v>0.1428592631395469</v>
       </c>
     </row>
     <row r="20">
@@ -7837,19 +7837,19 @@
         <v>353590</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>340083</v>
+        <v>340890</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>364586</v>
+        <v>364151</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.8686018448482103</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.8354211114376081</v>
+        <v>0.8374034609218135</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.8956137441261117</v>
+        <v>0.8945429679957604</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>732</v>
@@ -7858,19 +7858,19 @@
         <v>386465</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>375066</v>
+        <v>376687</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>396134</v>
+        <v>396168</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.8826170248584025</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.8565836135517042</v>
+        <v>0.860285096985394</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.904698587702915</v>
+        <v>0.9047761029599196</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>1236</v>
@@ -7879,19 +7879,19 @@
         <v>740056</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>723485</v>
+        <v>724235</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>755888</v>
+        <v>756839</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.8758647411315243</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.8562533575152915</v>
+        <v>0.8571407368604536</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.8946019893143048</v>
+        <v>0.8957283606759336</v>
       </c>
     </row>
     <row r="21">
@@ -7983,19 +7983,19 @@
         <v>41112</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>31669</v>
+        <v>31304</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>52305</v>
+        <v>52285</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>0.1329424067751739</v>
+        <v>0.1329424067751738</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.1024074111921455</v>
+        <v>0.1012256080032551</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.1691361586801325</v>
+        <v>0.1690706419449295</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>53</v>
@@ -8004,19 +8004,19 @@
         <v>30948</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>23212</v>
+        <v>23627</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>40673</v>
+        <v>39486</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>0.06661144944259066</v>
+        <v>0.06661144944259065</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.04996052075004601</v>
+        <v>0.0508530163024298</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.08754315549029278</v>
+        <v>0.08498786439226359</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>103</v>
@@ -8025,19 +8025,19 @@
         <v>72060</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>59966</v>
+        <v>58155</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>86857</v>
+        <v>86934</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.09311850859202998</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.07749020509852426</v>
+        <v>0.0751496605365467</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.112239568657599</v>
+        <v>0.1123389942387972</v>
       </c>
     </row>
     <row r="23">
@@ -8054,19 +8054,19 @@
         <v>268135</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>256942</v>
+        <v>256962</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>277578</v>
+        <v>277943</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>0.8670575932248261</v>
+        <v>0.8670575932248259</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.8308638413198675</v>
+        <v>0.8309293580550706</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.8975925888078544</v>
+        <v>0.8987743919967446</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>828</v>
@@ -8075,19 +8075,19 @@
         <v>433661</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>423936</v>
+        <v>425123</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>441397</v>
+        <v>440982</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>0.9333885505574094</v>
+        <v>0.9333885505574092</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.9124568445097071</v>
+        <v>0.9150121356077365</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.9500394792499541</v>
+        <v>0.9491469836975702</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>1235</v>
@@ -8096,19 +8096,19 @@
         <v>701796</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>686999</v>
+        <v>686922</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>713890</v>
+        <v>715701</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.9068814914079699</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.8877604313424009</v>
+        <v>0.8876610057612029</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.9225097949014757</v>
+        <v>0.9248503394634534</v>
       </c>
     </row>
     <row r="24">
@@ -8200,19 +8200,19 @@
         <v>520944</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>472693</v>
+        <v>469208</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>572748</v>
+        <v>568966</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.1479479255598124</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.1342447024746851</v>
+        <v>0.1332550997976604</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.1626605165857238</v>
+        <v>0.1615861505323511</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>969</v>
@@ -8221,19 +8221,19 @@
         <v>749267</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>704891</v>
+        <v>702785</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>794118</v>
+        <v>792189</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.2011423598591291</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.1892294598408788</v>
+        <v>0.1886639660748994</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.213182609297781</v>
+        <v>0.2126647755040108</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>1414</v>
@@ -8242,19 +8242,19 @@
         <v>1270211</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>1209314</v>
+        <v>1210512</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>1337781</v>
+        <v>1341115</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.1752936792835446</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.1668896754331169</v>
+        <v>0.1670549882563795</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.1846186326104662</v>
+        <v>0.1850787027935939</v>
       </c>
     </row>
     <row r="26">
@@ -8271,19 +8271,19 @@
         <v>3000184</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>2948380</v>
+        <v>2952162</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>3048435</v>
+        <v>3051920</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>0.8520520744401876</v>
+        <v>0.8520520744401877</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.8373394834142756</v>
+        <v>0.8384138494676489</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.8657552975253147</v>
+        <v>0.8667449002023394</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>4381</v>
@@ -8292,19 +8292,19 @@
         <v>2975793</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>2930942</v>
+        <v>2932871</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>3020169</v>
+        <v>3022275</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>0.798857640140871</v>
+        <v>0.7988576401408709</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.7868173907022191</v>
+        <v>0.7873352244959891</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.8107705401591214</v>
+        <v>0.8113360339251007</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>7302</v>
@@ -8313,19 +8313,19 @@
         <v>5975977</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>5908407</v>
+        <v>5905073</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>6036874</v>
+        <v>6035676</v>
       </c>
       <c r="U26" s="6" t="n">
-        <v>0.8247063207164554</v>
+        <v>0.8247063207164553</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.8153813673895337</v>
+        <v>0.8149212972064062</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.8331103245668831</v>
+        <v>0.8329450117436206</v>
       </c>
     </row>
     <row r="27">
